--- a/src/testCase/c_useCase_file/Aerocheck/紧固件强度校核/自动化连接件参数设置.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/紧固件强度校核/自动化连接件参数设置.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8310"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8310" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="16" r:id="rId1"/>
@@ -390,7 +390,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="92">
   <si>
     <t>用例编号</t>
   </si>
@@ -765,6 +765,14 @@
   </si>
   <si>
     <t>信息窗口</t>
+  </si>
+  <si>
+    <t>模块唯一标识</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>紧固件强度校核--紧固件参数设置</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1274,10 +1282,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF5"/>
+  <dimension ref="A1:AG5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1:Y1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1285,7 +1293,7 @@
     <col min="21" max="21" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="9" customFormat="1" ht="120" customHeight="1">
+    <row r="1" spans="1:33" s="9" customFormat="1" ht="120" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1359,10 +1367,13 @@
         <v>26</v>
       </c>
       <c r="Y1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:32" s="10" customFormat="1" ht="73.5" customHeight="1">
+    <row r="2" spans="1:33" s="10" customFormat="1" ht="73.5" customHeight="1">
       <c r="A2" s="12" t="s">
         <v>56</v>
       </c>
@@ -1433,9 +1444,12 @@
       <c r="X2" s="20">
         <v>0</v>
       </c>
-      <c r="Y2" s="20"/>
-    </row>
-    <row r="3" spans="1:32" s="11" customFormat="1" ht="73.5" customHeight="1">
+      <c r="Y2" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z2" s="20"/>
+    </row>
+    <row r="3" spans="1:33" s="11" customFormat="1" ht="73.5" customHeight="1">
       <c r="A3" s="12"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1460,16 +1474,17 @@
       <c r="V3" s="6"/>
       <c r="W3" s="6"/>
       <c r="X3" s="6"/>
-      <c r="Y3" s="3"/>
+      <c r="Y3" s="6"/>
       <c r="Z3" s="3"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="7"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="2"/>
       <c r="AC3" s="7"/>
       <c r="AD3" s="7"/>
       <c r="AE3" s="7"/>
-      <c r="AF3" s="4"/>
-    </row>
-    <row r="4" spans="1:32" s="11" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AF3" s="7"/>
+      <c r="AG3" s="4"/>
+    </row>
+    <row r="4" spans="1:33" s="11" customFormat="1" ht="73.5" customHeight="1">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -1494,16 +1509,17 @@
       <c r="V4" s="14"/>
       <c r="W4" s="14"/>
       <c r="X4" s="14"/>
-      <c r="Y4" s="13"/>
+      <c r="Y4" s="14"/>
       <c r="Z4" s="13"/>
-      <c r="AA4" s="12"/>
-      <c r="AB4" s="13"/>
-      <c r="AC4" s="7"/>
-      <c r="AD4" s="13"/>
+      <c r="AA4" s="13"/>
+      <c r="AB4" s="12"/>
+      <c r="AC4" s="13"/>
+      <c r="AD4" s="7"/>
       <c r="AE4" s="13"/>
       <c r="AF4" s="13"/>
-    </row>
-    <row r="5" spans="1:32" s="11" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG4" s="13"/>
+    </row>
+    <row r="5" spans="1:33" s="11" customFormat="1" ht="73.5" customHeight="1">
       <c r="A5" s="12"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1528,23 +1544,24 @@
       <c r="V5" s="6"/>
       <c r="W5" s="6"/>
       <c r="X5" s="6"/>
-      <c r="Y5" s="3"/>
+      <c r="Y5" s="6"/>
       <c r="Z5" s="3"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="7"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="2"/>
       <c r="AC5" s="7"/>
       <c r="AD5" s="7"/>
       <c r="AE5" s="7"/>
-      <c r="AF5" s="4"/>
+      <c r="AF5" s="7"/>
+      <c r="AG5" s="4"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z3:Z4 S1:S2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA3:AA4 S1:S2">
       <formula1>"执行,不执行"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA3:AA1048576 T1:T2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB3:AB1048576 T1:T2">
       <formula1>"信息窗口,警告弹窗,控件文本"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F2">
@@ -2343,10 +2360,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y9"/>
+  <dimension ref="A1:Z9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1:Y1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="73.5" customHeight="1"/>
@@ -2359,11 +2376,12 @@
     <col min="19" max="19" width="5.25" style="4" customWidth="1"/>
     <col min="20" max="20" width="6" style="4" customWidth="1"/>
     <col min="21" max="24" width="6" style="5" customWidth="1"/>
-    <col min="25" max="25" width="6.625" style="4" customWidth="1"/>
-    <col min="26" max="16384" width="10.875" style="8"/>
+    <col min="25" max="25" width="9"/>
+    <col min="26" max="26" width="6.625" style="4" customWidth="1"/>
+    <col min="27" max="16384" width="10.875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="9" customFormat="1" ht="120" customHeight="1">
+    <row r="1" spans="1:26" s="9" customFormat="1" ht="120" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2437,10 +2455,13 @@
         <v>26</v>
       </c>
       <c r="Y1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="10" customFormat="1" ht="73.5" customHeight="1">
+    <row r="2" spans="1:26" s="10" customFormat="1" ht="73.5" customHeight="1">
       <c r="A2" s="12" t="s">
         <v>56</v>
       </c>
@@ -2511,9 +2532,12 @@
       <c r="X2" s="20">
         <v>0</v>
       </c>
-      <c r="Y2" s="20"/>
-    </row>
-    <row r="3" spans="1:25" s="11" customFormat="1" ht="73.5" customHeight="1">
+      <c r="Y2" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z2" s="20"/>
+    </row>
+    <row r="3" spans="1:26" s="11" customFormat="1" ht="73.5" customHeight="1">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -2538,9 +2562,10 @@
       <c r="V3" s="5"/>
       <c r="W3" s="5"/>
       <c r="X3" s="5"/>
-      <c r="Y3" s="4"/>
-    </row>
-    <row r="4" spans="1:25" s="11" customFormat="1" ht="73.5" customHeight="1">
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="4"/>
+    </row>
+    <row r="4" spans="1:26" s="11" customFormat="1" ht="73.5" customHeight="1">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -2565,9 +2590,10 @@
       <c r="V4" s="5"/>
       <c r="W4" s="5"/>
       <c r="X4" s="5"/>
-      <c r="Y4" s="4"/>
-    </row>
-    <row r="5" spans="1:25" s="11" customFormat="1" ht="73.5" customHeight="1">
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="4"/>
+    </row>
+    <row r="5" spans="1:26" s="11" customFormat="1" ht="73.5" customHeight="1">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -2592,9 +2618,10 @@
       <c r="V5" s="5"/>
       <c r="W5" s="5"/>
       <c r="X5" s="5"/>
-      <c r="Y5" s="4"/>
-    </row>
-    <row r="6" spans="1:25" s="11" customFormat="1" ht="73.5" customHeight="1">
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="4"/>
+    </row>
+    <row r="6" spans="1:26" s="11" customFormat="1" ht="73.5" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -2619,9 +2646,10 @@
       <c r="V6" s="5"/>
       <c r="W6" s="5"/>
       <c r="X6" s="5"/>
-      <c r="Y6" s="4"/>
-    </row>
-    <row r="7" spans="1:25" s="11" customFormat="1" ht="73.5" customHeight="1">
+      <c r="Y6"/>
+      <c r="Z6" s="4"/>
+    </row>
+    <row r="7" spans="1:26" s="11" customFormat="1" ht="73.5" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -2646,9 +2674,10 @@
       <c r="V7" s="5"/>
       <c r="W7" s="5"/>
       <c r="X7" s="5"/>
-      <c r="Y7" s="4"/>
-    </row>
-    <row r="8" spans="1:25" s="11" customFormat="1" ht="73.5" customHeight="1">
+      <c r="Y7"/>
+      <c r="Z7" s="4"/>
+    </row>
+    <row r="8" spans="1:26" s="11" customFormat="1" ht="73.5" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -2673,9 +2702,10 @@
       <c r="V8" s="5"/>
       <c r="W8" s="5"/>
       <c r="X8" s="5"/>
-      <c r="Y8" s="4"/>
-    </row>
-    <row r="9" spans="1:25" s="11" customFormat="1" ht="73.5" customHeight="1">
+      <c r="Y8"/>
+      <c r="Z8" s="4"/>
+    </row>
+    <row r="9" spans="1:26" s="11" customFormat="1" ht="73.5" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -2700,7 +2730,8 @@
       <c r="V9" s="5"/>
       <c r="W9" s="5"/>
       <c r="X9" s="5"/>
-      <c r="Y9" s="4"/>
+      <c r="Y9"/>
+      <c r="Z9" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/src/testCase/c_useCase_file/Aerocheck/紧固件强度校核/自动化连接件参数设置.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/紧固件强度校核/自动化连接件参数设置.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8310" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8310" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="16" r:id="rId1"/>
-    <sheet name="控件属性已经操作方法" sheetId="17" r:id="rId2"/>
-    <sheet name="其他" sheetId="1" r:id="rId3"/>
+    <sheet name="测试一" sheetId="18" r:id="rId2"/>
+    <sheet name="控件属性已经操作方法" sheetId="17" r:id="rId3"/>
+    <sheet name="其他" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -148,45 +149,39 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>个人用户</author>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="A4" authorId="0" shapeId="0">
+    <comment ref="R1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>个人用户:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-方式一：self.dlg_spec.Edit4.set_text(LayerThan2)
-方式二：
-self.dlg_spec.child_window(title="均  值",class_name="Button")</t>
+用于对比文本信息</t>
         </r>
       </text>
     </comment>
-    <comment ref="A5" authorId="1" shapeId="0">
+    <comment ref="S1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
@@ -196,67 +191,79 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-窗口一
-窗口二
-窗口三</t>
+用例执行状态
+执行
+不执行</t>
         </r>
       </text>
     </comment>
-    <comment ref="A10" authorId="0" shapeId="0">
+    <comment ref="T1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>个人用户:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-路径弹窗</t>
+预期值展示类型
+弹窗警告
+信息窗口
+控件文本</t>
         </r>
       </text>
     </comment>
-    <comment ref="A14" authorId="0" shapeId="0">
+    <comment ref="U1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>个人用户:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-路径弹框</t>
+在被测模块可能有嵌套窗口</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>整个被测模块</t>
         </r>
       </text>
     </comment>
@@ -267,6 +274,125 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
+    <author>个人用户</author>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="A4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>个人用户:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+方式一：self.dlg_spec.Edit4.set_text(LayerThan2)
+方式二：
+self.dlg_spec.child_window(title="均  值",class_name="Button")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A5" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+窗口一
+窗口二
+窗口三</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A7" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+路径弹窗</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A9" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+路径弹窗</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
     <author>作者</author>
   </authors>
   <commentList>
@@ -390,7 +516,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="85">
   <si>
     <t>用例编号</t>
   </si>
@@ -417,14 +543,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>弹窗类型</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>关闭弹窗按钮名称</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>控件类型</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -441,38 +559,10 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>是否有弹窗出现</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹窗标题</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>其他</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>嵌套弹窗类型</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否有嵌套弹窗</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>嵌套弹窗标题</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>嵌套弹窗关闭按钮名称</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹窗中输入文件名</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>预期值信息类型</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -571,39 +661,11 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>按钮</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
+    <t>无</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>选择结构单元</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择结构单元</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>按钮</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -748,7 +810,26 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>否</t>
+    <t>坐标--键盘--文本框</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>150；30；GroupBox3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息窗口</t>
+  </si>
+  <si>
+    <t>模块唯一标识</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>紧固件强度校核--紧固件参数设置</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>套件类型一</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -756,22 +837,39 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>坐标--键盘--文本框</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>150；30；GroupBox3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>信息窗口</t>
-  </si>
-  <si>
-    <t>模块唯一标识</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>紧固件强度校核--紧固件参数设置</t>
+    <t>无</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>套件参数一</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>套件类型二</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>套件参数二</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮--弹窗套件</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮--弹窗套件</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CFBL1002-1</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -918,7 +1016,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -977,6 +1075,12 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1304,46 +1408,46 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>7</v>
@@ -1352,42 +1456,42 @@
         <v>3</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:33" s="10" customFormat="1" ht="73.5" customHeight="1">
       <c r="A2" s="12" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="D2" s="17">
         <v>10</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="F2" s="18">
         <v>2</v>
@@ -1399,44 +1503,44 @@
         <v>2</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="K2" s="18">
         <v>20</v>
       </c>
       <c r="L2" s="18" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="M2" s="18" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="N2" s="18" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="O2" s="18" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="P2" s="18" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="Q2" s="18" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="R2" s="19"/>
       <c r="S2" s="17" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="T2" s="19" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="U2" s="20" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="V2" s="20" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="W2" s="20" t="s">
         <v>6</v>
@@ -1445,7 +1549,7 @@
         <v>0</v>
       </c>
       <c r="Y2" s="7" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="Z2" s="20"/>
     </row>
@@ -1575,10 +1679,194 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P24"/>
+  <dimension ref="A1:Z2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:26" s="9" customFormat="1" ht="120" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" s="10" customFormat="1" ht="73.5" customHeight="1">
+      <c r="A2" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="17">
+        <v>10</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="18">
+        <v>2</v>
+      </c>
+      <c r="G2" s="18">
+        <v>15</v>
+      </c>
+      <c r="H2" s="18">
+        <v>2</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="18">
+        <v>20</v>
+      </c>
+      <c r="L2" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="P2" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q2" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="R2" s="19"/>
+      <c r="S2" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="T2" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="U2" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="V2" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="W2" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="X2" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z2" s="20"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F2">
+      <formula1>"1,2,3,4"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T1:T2">
+      <formula1>"信息窗口,警告弹窗,控件文本"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S1:S2">
+      <formula1>"执行,不执行"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="A11" sqref="A11:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1596,254 +1884,254 @@
     <row r="1" spans="1:16" s="9" customFormat="1" ht="87" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="40.5" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="L2" s="16" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="M2" s="16" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="N2" s="16" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="O2" s="16" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="P2" s="16" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="40.5" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B3" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="M3" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="N3" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="O3" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="P3" s="16" t="s">
         <v>68</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="J3" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="K3" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="L3" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="M3" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="N3" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="O3" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="P3" s="16" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="40.5" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="J4" s="16" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="K4" s="16" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="L4" s="16" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="M4" s="16" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="N4" s="16" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="O4" s="16" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="P4" s="16" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="40.5" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="J5" s="16" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="K5" s="16" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="L5" s="16" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="M5" s="16" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="N5" s="16" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="O5" s="16" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="P5" s="16" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="40.5" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" s="4">
         <v>0</v>
@@ -1891,465 +2179,215 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="40.5" customHeight="1">
+    <row r="7" spans="1:16" s="22" customFormat="1" ht="40.5" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="J7" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="L7" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="M7" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="N7" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="O7" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="P7" s="16" t="s">
-        <v>85</v>
+        <v>74</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="J7" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="K7" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="M7" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="N7" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="O7" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="P7" s="21" t="s">
+        <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="40.5" customHeight="1">
+    <row r="8" spans="1:16" s="22" customFormat="1" ht="40.5" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="L8" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="M8" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="N8" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="O8" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="P8" s="16" t="s">
-        <v>86</v>
+        <v>78</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="I8" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="J8" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="K8" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="L8" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="M8" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="N8" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="O8" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="P8" s="21" t="s">
+        <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="40.5" customHeight="1">
+    <row r="9" spans="1:16" s="22" customFormat="1" ht="40.5" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="I9" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="J9" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="L9" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="M9" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="N9" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="O9" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="P9" s="16" t="s">
-        <v>86</v>
+        <v>80</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="J9" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="K9" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="L9" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="M9" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="N9" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="O9" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="P9" s="21" t="s">
+        <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="40.5" customHeight="1">
+    <row r="10" spans="1:16" s="22" customFormat="1" ht="40.5" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="I10" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="J10" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="L10" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="M10" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="N10" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="O10" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="P10" s="16" t="s">
-        <v>86</v>
+        <v>81</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="J10" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="K10" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="L10" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="M10" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="N10" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="O10" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="P10" s="21" t="s">
+        <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="40.5" customHeight="1">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="H11" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="I11" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="J11" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="K11" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="L11" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="M11" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="N11" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="O11" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="P11" s="16" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="40.5" customHeight="1">
-      <c r="A12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="H12" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="I12" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="J12" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="K12" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="L12" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="M12" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="N12" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="O12" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="P12" s="16" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="40.5" customHeight="1">
-      <c r="A13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="H13" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="I13" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="J13" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="K13" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="L13" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="M13" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="N13" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="O13" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="P13" s="16" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="40.5" customHeight="1">
-      <c r="A14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="H14" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="I14" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="J14" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="K14" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="L14" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="M14" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="N14" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="O14" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="P14" s="16" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="40.5" customHeight="1">
-      <c r="A15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="H15" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="J15" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="K15" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="L15" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="M15" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="N15" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="O15" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="P15" s="16" t="s">
-        <v>86</v>
-      </c>
-    </row>
+    <row r="11" spans="1:16" ht="40.5" customHeight="1"/>
+    <row r="12" spans="1:16" ht="40.5" customHeight="1"/>
+    <row r="13" spans="1:16" ht="40.5" customHeight="1"/>
+    <row r="14" spans="1:16" ht="40.5" customHeight="1"/>
+    <row r="15" spans="1:16" ht="40.5" customHeight="1"/>
     <row r="16" spans="1:16" ht="40.5" customHeight="1"/>
     <row r="17" ht="40.5" customHeight="1"/>
     <row r="18" ht="40.5" customHeight="1"/>
     <row r="19" ht="40.5" customHeight="1"/>
-    <row r="20" ht="40.5" customHeight="1"/>
-    <row r="21" ht="40.5" customHeight="1"/>
-    <row r="22" ht="40.5" customHeight="1"/>
-    <row r="23" ht="40.5" customHeight="1"/>
-    <row r="24" ht="40.5" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2358,12 +2396,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1:Y1048576"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="73.5" customHeight="1"/>
@@ -2392,46 +2430,46 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>7</v>
@@ -2440,42 +2478,42 @@
         <v>3</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:26" s="10" customFormat="1" ht="73.5" customHeight="1">
       <c r="A2" s="12" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="D2" s="17">
         <v>10</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="F2" s="18">
         <v>2</v>
@@ -2487,44 +2525,44 @@
         <v>2</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="K2" s="18">
         <v>20</v>
       </c>
       <c r="L2" s="18" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="M2" s="18" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="N2" s="18" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="O2" s="18" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="P2" s="18" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="Q2" s="18" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="R2" s="19"/>
       <c r="S2" s="17" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="T2" s="19" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="U2" s="20" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="V2" s="20" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="W2" s="20" t="s">
         <v>6</v>
@@ -2533,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="Y2" s="7" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="Z2" s="20"/>
     </row>

--- a/src/testCase/c_useCase_file/Aerocheck/紧固件强度校核/自动化连接件参数设置.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/紧固件强度校核/自动化连接件参数设置.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8310" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8310" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="16" r:id="rId1"/>
@@ -516,7 +516,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="86">
   <si>
     <t>用例编号</t>
   </si>
@@ -870,6 +870,10 @@
   </si>
   <si>
     <t>CFBL1002-1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期值控件标识属性</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1386,18 +1390,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG5"/>
+  <dimension ref="A1:AH12"/>
   <sheetViews>
     <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1:Y1048576"/>
+      <selection activeCell="Z1" sqref="Z1:Z1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="21" max="21" width="14.875" customWidth="1"/>
+    <col min="26" max="26" width="13.5" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="9" customFormat="1" ht="120" customHeight="1">
+    <row r="1" spans="1:34" s="9" customFormat="1" ht="120" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1473,11 +1478,14 @@
       <c r="Y1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="10" customFormat="1" ht="73.5" customHeight="1">
+    <row r="2" spans="1:34" s="10" customFormat="1" ht="73.5" customHeight="1">
       <c r="A2" s="12" t="s">
         <v>40</v>
       </c>
@@ -1551,9 +1559,10 @@
       <c r="Y2" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="Z2" s="20"/>
-    </row>
-    <row r="3" spans="1:33" s="11" customFormat="1" ht="73.5" customHeight="1">
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="20"/>
+    </row>
+    <row r="3" spans="1:34" s="11" customFormat="1" ht="73.5" customHeight="1">
       <c r="A3" s="12"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1581,14 +1590,15 @@
       <c r="Y3" s="6"/>
       <c r="Z3" s="3"/>
       <c r="AA3" s="3"/>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="7"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="2"/>
       <c r="AD3" s="7"/>
       <c r="AE3" s="7"/>
       <c r="AF3" s="7"/>
-      <c r="AG3" s="4"/>
-    </row>
-    <row r="4" spans="1:33" s="11" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG3" s="7"/>
+      <c r="AH3" s="4"/>
+    </row>
+    <row r="4" spans="1:34" s="11" customFormat="1" ht="73.5" customHeight="1">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -1614,16 +1624,17 @@
       <c r="W4" s="14"/>
       <c r="X4" s="14"/>
       <c r="Y4" s="14"/>
-      <c r="Z4" s="13"/>
+      <c r="Z4" s="3"/>
       <c r="AA4" s="13"/>
-      <c r="AB4" s="12"/>
-      <c r="AC4" s="13"/>
-      <c r="AD4" s="7"/>
-      <c r="AE4" s="13"/>
+      <c r="AB4" s="13"/>
+      <c r="AC4" s="12"/>
+      <c r="AD4" s="13"/>
+      <c r="AE4" s="7"/>
       <c r="AF4" s="13"/>
       <c r="AG4" s="13"/>
-    </row>
-    <row r="5" spans="1:33" s="11" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AH4" s="13"/>
+    </row>
+    <row r="5" spans="1:34" s="11" customFormat="1" ht="73.5" customHeight="1">
       <c r="A5" s="12"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1651,21 +1662,43 @@
       <c r="Y5" s="6"/>
       <c r="Z5" s="3"/>
       <c r="AA5" s="3"/>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="7"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="2"/>
       <c r="AD5" s="7"/>
       <c r="AE5" s="7"/>
       <c r="AF5" s="7"/>
-      <c r="AG5" s="4"/>
+      <c r="AG5" s="7"/>
+      <c r="AH5" s="4"/>
+    </row>
+    <row r="6" spans="1:34">
+      <c r="Z6" s="3"/>
+    </row>
+    <row r="7" spans="1:34">
+      <c r="Z7" s="3"/>
+    </row>
+    <row r="8" spans="1:34">
+      <c r="Z8" s="3"/>
+    </row>
+    <row r="9" spans="1:34">
+      <c r="Z9" s="3"/>
+    </row>
+    <row r="10" spans="1:34">
+      <c r="Z10" s="3"/>
+    </row>
+    <row r="11" spans="1:34">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:34">
+      <c r="Z12" s="3"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA3:AA4 S1:S2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB3:AB4 S1:S2 Z3:Z1048576">
       <formula1>"执行,不执行"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB3:AB1048576 T1:T2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC3:AC1048576 T1:T2">
       <formula1>"信息窗口,警告弹窗,控件文本"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F2">
@@ -1679,15 +1712,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z2"/>
+  <dimension ref="A1:AA12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Z1" sqref="Z1:Z1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="26" max="26" width="13.5" style="4" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="9" customFormat="1" ht="120" customHeight="1">
+    <row r="1" spans="1:27" s="9" customFormat="1" ht="120" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1763,11 +1799,14 @@
       <c r="Y1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:26" s="10" customFormat="1" ht="73.5" customHeight="1">
+    <row r="2" spans="1:27" s="10" customFormat="1" ht="73.5" customHeight="1">
       <c r="A2" s="12" t="s">
         <v>40</v>
       </c>
@@ -1841,7 +1880,38 @@
       <c r="Y2" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="Z2" s="20"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="20"/>
+    </row>
+    <row r="3" spans="1:27">
+      <c r="Z3" s="3"/>
+    </row>
+    <row r="4" spans="1:27">
+      <c r="Z4" s="3"/>
+    </row>
+    <row r="5" spans="1:27">
+      <c r="Z5" s="3"/>
+    </row>
+    <row r="6" spans="1:27">
+      <c r="Z6" s="3"/>
+    </row>
+    <row r="7" spans="1:27">
+      <c r="Z7" s="3"/>
+    </row>
+    <row r="8" spans="1:27">
+      <c r="Z8" s="3"/>
+    </row>
+    <row r="9" spans="1:27">
+      <c r="Z9" s="3"/>
+    </row>
+    <row r="10" spans="1:27">
+      <c r="Z10" s="3"/>
+    </row>
+    <row r="11" spans="1:27">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:27">
+      <c r="Z12" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -1852,7 +1922,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T1:T2">
       <formula1>"信息窗口,警告弹窗,控件文本"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S1:S2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S1:S2 Z3:Z1048576">
       <formula1>"执行,不执行"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2398,10 +2468,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z9"/>
+  <dimension ref="A1:AA12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Z1" sqref="Z1:Z1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="73.5" customHeight="1"/>
@@ -2415,11 +2485,12 @@
     <col min="20" max="20" width="6" style="4" customWidth="1"/>
     <col min="21" max="24" width="6" style="5" customWidth="1"/>
     <col min="25" max="25" width="9"/>
-    <col min="26" max="26" width="6.625" style="4" customWidth="1"/>
-    <col min="27" max="16384" width="10.875" style="8"/>
+    <col min="26" max="26" width="13.5" style="4" customWidth="1"/>
+    <col min="27" max="27" width="6.625" style="4" customWidth="1"/>
+    <col min="28" max="16384" width="10.875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="9" customFormat="1" ht="120" customHeight="1">
+    <row r="1" spans="1:27" s="9" customFormat="1" ht="120" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2495,11 +2566,14 @@
       <c r="Y1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:26" s="10" customFormat="1" ht="73.5" customHeight="1">
+    <row r="2" spans="1:27" s="10" customFormat="1" ht="73.5" customHeight="1">
       <c r="A2" s="12" t="s">
         <v>40</v>
       </c>
@@ -2573,9 +2647,10 @@
       <c r="Y2" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="Z2" s="20"/>
-    </row>
-    <row r="3" spans="1:26" s="11" customFormat="1" ht="73.5" customHeight="1">
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="20"/>
+    </row>
+    <row r="3" spans="1:27" s="11" customFormat="1" ht="73.5" customHeight="1">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -2601,9 +2676,10 @@
       <c r="W3" s="5"/>
       <c r="X3" s="5"/>
       <c r="Y3" s="6"/>
-      <c r="Z3" s="4"/>
-    </row>
-    <row r="4" spans="1:26" s="11" customFormat="1" ht="73.5" customHeight="1">
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="4"/>
+    </row>
+    <row r="4" spans="1:27" s="11" customFormat="1" ht="73.5" customHeight="1">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -2629,9 +2705,10 @@
       <c r="W4" s="5"/>
       <c r="X4" s="5"/>
       <c r="Y4" s="14"/>
-      <c r="Z4" s="4"/>
-    </row>
-    <row r="5" spans="1:26" s="11" customFormat="1" ht="73.5" customHeight="1">
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="4"/>
+    </row>
+    <row r="5" spans="1:27" s="11" customFormat="1" ht="73.5" customHeight="1">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -2657,9 +2734,10 @@
       <c r="W5" s="5"/>
       <c r="X5" s="5"/>
       <c r="Y5" s="6"/>
-      <c r="Z5" s="4"/>
-    </row>
-    <row r="6" spans="1:26" s="11" customFormat="1" ht="73.5" customHeight="1">
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="4"/>
+    </row>
+    <row r="6" spans="1:27" s="11" customFormat="1" ht="73.5" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -2685,9 +2763,10 @@
       <c r="W6" s="5"/>
       <c r="X6" s="5"/>
       <c r="Y6"/>
-      <c r="Z6" s="4"/>
-    </row>
-    <row r="7" spans="1:26" s="11" customFormat="1" ht="73.5" customHeight="1">
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="4"/>
+    </row>
+    <row r="7" spans="1:27" s="11" customFormat="1" ht="73.5" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -2713,9 +2792,10 @@
       <c r="W7" s="5"/>
       <c r="X7" s="5"/>
       <c r="Y7"/>
-      <c r="Z7" s="4"/>
-    </row>
-    <row r="8" spans="1:26" s="11" customFormat="1" ht="73.5" customHeight="1">
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="4"/>
+    </row>
+    <row r="8" spans="1:27" s="11" customFormat="1" ht="73.5" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -2741,9 +2821,10 @@
       <c r="W8" s="5"/>
       <c r="X8" s="5"/>
       <c r="Y8"/>
-      <c r="Z8" s="4"/>
-    </row>
-    <row r="9" spans="1:26" s="11" customFormat="1" ht="73.5" customHeight="1">
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="4"/>
+    </row>
+    <row r="9" spans="1:27" s="11" customFormat="1" ht="73.5" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -2769,12 +2850,22 @@
       <c r="W9" s="5"/>
       <c r="X9" s="5"/>
       <c r="Y9"/>
-      <c r="Z9" s="4"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="4"/>
+    </row>
+    <row r="10" spans="1:27" ht="73.5" customHeight="1">
+      <c r="Z10" s="3"/>
+    </row>
+    <row r="11" spans="1:27" ht="73.5" customHeight="1">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" ht="73.5" customHeight="1">
+      <c r="Z12" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S1:S1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S1:S1048576 Z3:Z1048576">
       <formula1>"执行,不执行"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T1:T1048576">

--- a/src/testCase/c_useCase_file/Aerocheck/紧固件强度校核/自动化连接件参数设置.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/紧固件强度校核/自动化连接件参数设置.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8310" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8310" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="16" r:id="rId1"/>
@@ -1935,7 +1935,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A11" sqref="A11:XFD19"/>
     </sheetView>
   </sheetViews>
@@ -2470,7 +2470,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Z1" sqref="Z1:Z1048576"/>
     </sheetView>
   </sheetViews>

--- a/src/testCase/c_useCase_file/Aerocheck/紧固件强度校核/自动化连接件参数设置.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/紧固件强度校核/自动化连接件参数设置.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8310" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8310" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="16" r:id="rId1"/>
@@ -396,7 +396,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="R1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -420,7 +420,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -446,7 +446,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -473,7 +473,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -497,7 +497,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -516,7 +516,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="86">
   <si>
     <t>用例编号</t>
   </si>
@@ -571,10 +571,6 @@
   </si>
   <si>
     <t>操作子窗口标题</t>
-  </si>
-  <si>
-    <t>所操作实例</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>测试结果等待时间</t>
@@ -874,6 +870,10 @@
   </si>
   <si>
     <t>预期值控件标识属性</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>所操作控件窗口</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1020,7 +1020,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1085,6 +1085,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1413,46 +1416,46 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>7</v>
@@ -1473,13 +1476,13 @@
         <v>5</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z1" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>12</v>
@@ -1487,19 +1490,19 @@
     </row>
     <row r="2" spans="1:34" s="10" customFormat="1" ht="73.5" customHeight="1">
       <c r="A2" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>41</v>
-      </c>
       <c r="C2" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2" s="17">
         <v>10</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F2" s="18">
         <v>2</v>
@@ -1511,44 +1514,44 @@
         <v>2</v>
       </c>
       <c r="I2" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="18" t="s">
         <v>43</v>
-      </c>
-      <c r="J2" s="18" t="s">
-        <v>44</v>
       </c>
       <c r="K2" s="18">
         <v>20</v>
       </c>
       <c r="L2" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="M2" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="M2" s="18" t="s">
+      <c r="N2" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="N2" s="18" t="s">
-        <v>45</v>
-      </c>
       <c r="O2" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P2" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q2" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R2" s="19"/>
       <c r="S2" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="T2" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="U2" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="T2" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="U2" s="20" t="s">
-        <v>49</v>
-      </c>
       <c r="V2" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W2" s="20" t="s">
         <v>6</v>
@@ -1557,7 +1560,7 @@
         <v>0</v>
       </c>
       <c r="Y2" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Z2" s="2"/>
       <c r="AA2" s="20"/>
@@ -1734,46 +1737,46 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>7</v>
@@ -1794,13 +1797,13 @@
         <v>5</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z1" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>12</v>
@@ -1808,19 +1811,19 @@
     </row>
     <row r="2" spans="1:27" s="10" customFormat="1" ht="73.5" customHeight="1">
       <c r="A2" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>41</v>
-      </c>
       <c r="C2" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D2" s="17">
         <v>10</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F2" s="18">
         <v>2</v>
@@ -1832,44 +1835,44 @@
         <v>2</v>
       </c>
       <c r="I2" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="18" t="s">
         <v>43</v>
-      </c>
-      <c r="J2" s="18" t="s">
-        <v>44</v>
       </c>
       <c r="K2" s="18">
         <v>20</v>
       </c>
       <c r="L2" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="M2" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="M2" s="18" t="s">
+      <c r="N2" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="N2" s="18" t="s">
+      <c r="O2" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="P2" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="O2" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="P2" s="18" t="s">
+      <c r="Q2" s="18" t="s">
         <v>46</v>
-      </c>
-      <c r="Q2" s="18" t="s">
-        <v>47</v>
       </c>
       <c r="R2" s="19"/>
       <c r="S2" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="T2" s="19" t="s">
         <v>14</v>
       </c>
       <c r="U2" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="V2" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W2" s="20" t="s">
         <v>6</v>
@@ -1878,7 +1881,7 @@
         <v>0</v>
       </c>
       <c r="Y2" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Z2" s="2"/>
       <c r="AA2" s="20"/>
@@ -1935,8 +1938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1954,49 +1957,49 @@
     <row r="1" spans="1:16" s="9" customFormat="1" ht="87" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="40.5" customHeight="1">
@@ -2004,49 +2007,49 @@
         <v>8</v>
       </c>
       <c r="B2" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="D2" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="16" t="s">
+      <c r="F2" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>34</v>
-      </c>
       <c r="H2" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="L2" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="L2" s="16" t="s">
-        <v>37</v>
-      </c>
       <c r="M2" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N2" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O2" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P2" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="40.5" customHeight="1">
@@ -2054,49 +2057,49 @@
         <v>9</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="E3" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="G3" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="H3" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="I3" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="J3" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="K3" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="J3" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="K3" s="16" t="s">
+      <c r="L3" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="L3" s="16" t="s">
+      <c r="M3" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="M3" s="16" t="s">
+      <c r="N3" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="N3" s="16" t="s">
+      <c r="O3" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="O3" s="16" t="s">
+      <c r="P3" s="16" t="s">
         <v>67</v>
-      </c>
-      <c r="P3" s="16" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="40.5" customHeight="1">
@@ -2104,99 +2107,99 @@
         <v>10</v>
       </c>
       <c r="B4" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="M4" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="N4" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="P4" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="40.5" customHeight="1">
+      <c r="A5" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C5" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D5" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E5" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F5" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G5" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H5" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="I5" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="J4" s="16" t="s">
+      <c r="J5" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="K4" s="16" t="s">
+      <c r="K5" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="L4" s="16" t="s">
+      <c r="L5" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="M4" s="16" t="s">
+      <c r="M5" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="N4" s="16" t="s">
+      <c r="N5" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="O4" s="16" t="s">
+      <c r="O5" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="P4" s="16" t="s">
+      <c r="P5" s="16" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="40.5" customHeight="1">
-      <c r="A5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="I5" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="J5" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="K5" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="L5" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="M5" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="N5" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="O5" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="P5" s="16" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="40.5" customHeight="1">
@@ -2251,202 +2254,202 @@
     </row>
     <row r="7" spans="1:16" s="22" customFormat="1" ht="40.5" customHeight="1">
       <c r="A7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="21" t="s">
-        <v>75</v>
-      </c>
       <c r="C7" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>77</v>
-      </c>
       <c r="F7" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I7" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J7" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K7" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L7" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M7" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N7" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O7" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P7" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="22" customFormat="1" ht="40.5" customHeight="1">
       <c r="A8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="B8" s="21" t="s">
-        <v>79</v>
-      </c>
       <c r="C8" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I8" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J8" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K8" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L8" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M8" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N8" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O8" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P8" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="22" customFormat="1" ht="40.5" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I9" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J9" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K9" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L9" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M9" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N9" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O9" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P9" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="22" customFormat="1" ht="40.5" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I10" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J10" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K10" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L10" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M10" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N10" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O10" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P10" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="40.5" customHeight="1"/>
@@ -2468,10 +2471,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA12"/>
+  <dimension ref="A1:Z12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Z1" sqref="Z1:Z1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AA1" sqref="AA1:AJ1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="73.5" customHeight="1"/>
@@ -2479,18 +2482,16 @@
     <col min="1" max="1" width="8.125" style="4" customWidth="1"/>
     <col min="2" max="2" width="30.875" style="4" customWidth="1"/>
     <col min="3" max="3" width="20" style="4" customWidth="1"/>
-    <col min="4" max="17" width="5" style="4" customWidth="1"/>
-    <col min="18" max="18" width="31.625" style="4" customWidth="1"/>
-    <col min="19" max="19" width="5.25" style="4" customWidth="1"/>
-    <col min="20" max="20" width="6" style="4" customWidth="1"/>
-    <col min="21" max="24" width="6" style="5" customWidth="1"/>
-    <col min="25" max="25" width="9"/>
-    <col min="26" max="26" width="13.5" style="4" customWidth="1"/>
-    <col min="27" max="27" width="6.625" style="4" customWidth="1"/>
-    <col min="28" max="16384" width="10.875" style="8"/>
+    <col min="4" max="4" width="31.625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="5.25" style="4" customWidth="1"/>
+    <col min="6" max="6" width="6" style="4" customWidth="1"/>
+    <col min="7" max="10" width="6" style="5" customWidth="1"/>
+    <col min="12" max="12" width="13.5" style="4" customWidth="1"/>
+    <col min="13" max="26" width="5" style="4" customWidth="1"/>
+    <col min="27" max="16384" width="10.875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="9" customFormat="1" ht="120" customHeight="1">
+    <row r="1" spans="1:26" s="9" customFormat="1" ht="120" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2501,377 +2502,366 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="V1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:26" s="10" customFormat="1" ht="73.5" customHeight="1">
+      <c r="A2" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="19"/>
+      <c r="E2" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="20">
+        <v>0</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" s="17">
+        <v>10</v>
+      </c>
+      <c r="N2" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" s="18">
+        <v>2</v>
+      </c>
+      <c r="P2" s="18">
         <v>15</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z1" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" s="10" customFormat="1" ht="73.5" customHeight="1">
-      <c r="A2" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" s="17">
-        <v>10</v>
-      </c>
-      <c r="E2" s="17" t="s">
+      <c r="Q2" s="18">
+        <v>2</v>
+      </c>
+      <c r="R2" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="18">
-        <v>2</v>
-      </c>
-      <c r="G2" s="18">
-        <v>15</v>
-      </c>
-      <c r="H2" s="18">
-        <v>2</v>
-      </c>
-      <c r="I2" s="18" t="s">
+      <c r="S2" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="T2" s="18">
+        <v>20</v>
+      </c>
+      <c r="U2" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="V2" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="W2" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="K2" s="18">
-        <v>20</v>
-      </c>
-      <c r="L2" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="M2" s="18" t="s">
+      <c r="X2" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="N2" s="18" t="s">
+      <c r="Y2" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="O2" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="P2" s="18" t="s">
+      <c r="Z2" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="Q2" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="R2" s="19"/>
-      <c r="S2" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="T2" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="U2" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="V2" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="W2" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="X2" s="20">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="20"/>
-    </row>
-    <row r="3" spans="1:27" s="11" customFormat="1" ht="73.5" customHeight="1">
+    </row>
+    <row r="3" spans="1:26" s="11" customFormat="1" ht="73.5" customHeight="1">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="6"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="6"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
-      <c r="AA3" s="4"/>
-    </row>
-    <row r="4" spans="1:27" s="11" customFormat="1" ht="73.5" customHeight="1">
+    </row>
+    <row r="4" spans="1:26" s="11" customFormat="1" ht="73.5" customHeight="1">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="14"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="14"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
-      <c r="AA4" s="4"/>
-    </row>
-    <row r="5" spans="1:27" s="11" customFormat="1" ht="73.5" customHeight="1">
+    </row>
+    <row r="5" spans="1:26" s="11" customFormat="1" ht="73.5" customHeight="1">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="6"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="6"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
-      <c r="AA5" s="4"/>
-    </row>
-    <row r="6" spans="1:27" s="11" customFormat="1" ht="73.5" customHeight="1">
+    </row>
+    <row r="6" spans="1:26" s="11" customFormat="1" ht="73.5" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
-      <c r="Y6"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
-      <c r="AA6" s="4"/>
-    </row>
-    <row r="7" spans="1:27" s="11" customFormat="1" ht="73.5" customHeight="1">
+    </row>
+    <row r="7" spans="1:26" s="11" customFormat="1" ht="73.5" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
-      <c r="Y7"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
-      <c r="AA7" s="4"/>
-    </row>
-    <row r="8" spans="1:27" s="11" customFormat="1" ht="73.5" customHeight="1">
+    </row>
+    <row r="8" spans="1:26" s="11" customFormat="1" ht="73.5" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
-      <c r="Y8"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
-      <c r="AA8" s="4"/>
-    </row>
-    <row r="9" spans="1:27" s="11" customFormat="1" ht="73.5" customHeight="1">
+    </row>
+    <row r="9" spans="1:26" s="11" customFormat="1" ht="73.5" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
-      <c r="X9" s="5"/>
-      <c r="Y9"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
-      <c r="AA9" s="4"/>
-    </row>
-    <row r="10" spans="1:27" ht="73.5" customHeight="1">
-      <c r="Z10" s="3"/>
-    </row>
-    <row r="11" spans="1:27" ht="73.5" customHeight="1">
-      <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" ht="73.5" customHeight="1">
-      <c r="Z12" s="3"/>
+    </row>
+    <row r="10" spans="1:26" ht="73.5" customHeight="1">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:26" ht="73.5" customHeight="1">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" ht="73.5" customHeight="1">
+      <c r="L12" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S1:S1048576 Z3:Z1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576 L3:L1048576">
       <formula1>"执行,不执行"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T1:T1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576">
       <formula1>"信息窗口,警告弹窗,控件文本"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:O1048576">
       <formula1>"1,2,3,4"</formula1>
     </dataValidation>
   </dataValidations>

--- a/src/testCase/c_useCase_file/Aerocheck/紧固件强度校核/自动化连接件参数设置.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/紧固件强度校核/自动化连接件参数设置.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8310" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8310" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="16" r:id="rId1"/>
@@ -1938,7 +1938,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -2473,7 +2473,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AA1" sqref="AA1:AJ1048576"/>
     </sheetView>
   </sheetViews>
